--- a/Section 1/Consumer Beahviour Analysis/Consumer Behaviour Survey Analysis.xlsx
+++ b/Section 1/Consumer Beahviour Analysis/Consumer Behaviour Survey Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONKAMS\Downloads\nestle-international-marketing-analysis\Section 1\Consumer Beahviour Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C243B5F-A8C2-4BD5-A27A-5865CF5AD144}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C884F6-1A83-4C7B-8167-1FE441F2D2EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="China" sheetId="1" r:id="rId1"/>
+    <sheet name="United States" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>Summary of Respondents' Demographics(N=100)</t>
   </si>
@@ -172,6 +173,69 @@
   </si>
   <si>
     <t>Comparison of Customer Satisfaction Level</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Percentage of Consumers Reporting Economic Hardship</t>
+  </si>
+  <si>
+    <t>US Mixie Consumer Sentiment Survey</t>
+  </si>
+  <si>
+    <t>Change in Buying Behavior</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>I buy my preferred brand but only when on sale or with a coupon</t>
+  </si>
+  <si>
+    <t>I buy my preferred brand but at stores with lower prices</t>
+  </si>
+  <si>
+    <t>I buy my preferred brand but in lower quantities</t>
+  </si>
+  <si>
+    <t>I traded down to a less expensive brand or private label</t>
+  </si>
+  <si>
+    <t>I traded up to a more expensive brand</t>
+  </si>
+  <si>
+    <t>I made another change</t>
+  </si>
+  <si>
+    <t>McKinsey US Consumer Sentiment Survey, 2018</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>US (%)</t>
+  </si>
+  <si>
+    <t>Non-Alcoholic Beverages (%)</t>
+  </si>
+  <si>
+    <t>Alcoholic Beverages (%)</t>
+  </si>
+  <si>
+    <t>Personal Care (%)</t>
+  </si>
+  <si>
+    <t>Household Care (%)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Changes in buying beahviour in the past year among those who changed buying behaviour</t>
   </si>
 </sst>
 </file>
@@ -269,18 +333,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -339,6 +488,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEB1-4778-A0A3-3E42679359E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -382,6 +536,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DEB1-4778-A0A3-3E42679359E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -401,6 +560,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DEB1-4778-A0A3-3E42679359E1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -499,7 +663,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$11</c:f>
+              <c:f>China!$A$7:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -522,7 +686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$11</c:f>
+              <c:f>China!$B$7:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -714,7 +878,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$BG$28:$BG$32</c:f>
+              <c:f>China!$BG$28:$BG$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -737,7 +901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BH$28:$BH$32</c:f>
+              <c:f>China!$BH$28:$BH$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -923,6 +1087,822 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'United States'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Consumers Reporting Economic Hardship</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:tint val="88500"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
+                        <a:lumMod val="110000"/>
+                        <a:satMod val="105000"/>
+                        <a:tint val="67000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="103000"/>
+                        <a:tint val="73000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:tint val="88500"/>
+                        <a:lumMod val="105000"/>
+                        <a:satMod val="109000"/>
+                        <a:tint val="81000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-89BE-4D7B-A90E-51B3FFB35AE6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'United States'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40057</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'United States'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89BE-4D7B-A90E-51B3FFB35AE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1885252528"/>
+        <c:axId val="1760753456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1885252528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1760753456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1760753456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1885252528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'United States'!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'United States'!$W$3:$W$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>I buy my preferred brand but only when on sale or with a coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I buy my preferred brand but at stores with lower prices</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I buy my preferred brand but in lower quantities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I traded down to a less expensive brand or private label</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I traded up to a more expensive brand</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I made another change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'United States'!$X$3:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DD8-4D9D-B34D-4B30B3D662E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'United States'!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>World</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'United States'!$W$3:$W$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>I buy my preferred brand but only when on sale or with a coupon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>I buy my preferred brand but at stores with lower prices</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>I buy my preferred brand but in lower quantities</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I traded down to a less expensive brand or private label</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I traded up to a more expensive brand</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I made another change</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'United States'!$Y$3:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DD8-4D9D-B34D-4B30B3D662E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1888446848"/>
+        <c:axId val="1763051728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1888446848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1763051728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1763051728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888446848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44936560208513276"/>
+          <c:y val="0.93934223424879337"/>
+          <c:w val="0.23985625059558274"/>
+          <c:h val="4.4747614260256252E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1003,6 +1983,73 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -1605,6 +2652,1062 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2186,6 +4289,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>394928</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>585428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78298</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC894D06-C37F-4D98-BD71-FEE725AEF177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>43222</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>16007</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>192100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B16F3-20D2-442E-8449-0E393233821D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{053A2267-BBC5-427B-99EC-03820A4AA5CC}" name="Table1" displayName="Table1" ref="A2:C34" totalsRowShown="0">
   <autoFilter ref="A2:C34" xr:uid="{987744F4-27A9-48F5-B8AB-1262D4453E53}"/>
@@ -2199,12 +4379,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F9B65F4-4336-445C-B7C4-6CF483D3BBE1}" name="Table2" displayName="Table2" ref="BG2:BI32" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F9B65F4-4336-445C-B7C4-6CF483D3BBE1}" name="Table2" displayName="Table2" ref="BG2:BI32" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="BG2:BI32" xr:uid="{5DBB6849-D0EA-4189-A12B-52E7E7BC92FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AD23F8FC-F567-4EEA-983C-B87DDEEDEE29}" name="RESPONSE"/>
     <tableColumn id="2" xr3:uid="{586E8485-6AD3-4301-BD83-444BCFE7DFC2}" name="FREQUENCY"/>
     <tableColumn id="3" xr3:uid="{14119CCF-C36F-4E9F-8356-82D62750B0F4}" name="PERCENTAGE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F0FB5AB-8391-41D0-92D3-3423B334D9AD}" name="Table3" displayName="Table3" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13" xr:uid="{A88B349A-B74A-45C6-984F-7C94F15BBA11}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0C7D2A7E-E33C-47C0-93EB-5508DB77853A}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D64E160B-154E-4E5E-943A-B5BCA59AE64A}" name="Percentage of Consumers Reporting Economic Hardship" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C44670EF-0ADD-453B-9478-DE020CF4AEFE}" name="Table4" displayName="Table4" ref="W2:Y8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="W2:Y8" xr:uid="{92C45653-C4FA-47C3-A4CF-E4683A87E07C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{541A502A-108C-4E93-9395-255053A9DEB8}" name="Change in Buying Behavior" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D344C1C6-87AF-475D-A41D-CCE6FAE5A249}" name="US" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BEBBB025-3966-4745-8176-ED1C52CCB608}" name="World" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DA3E0FF0-5B21-4005-B340-902B5BF27D1A}" name="Table5" displayName="Table5" ref="AS3:AX9" totalsRowShown="0">
+  <autoFilter ref="AS3:AX9" xr:uid="{0E5ABCA2-5403-4C7A-B69F-C7A0CEEFCA18}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4FA535E4-B8C0-48B4-AD63-6E9C8904B199}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{43AE85E5-F939-4108-A9D5-706E2D1B6DA2}" name="US (%)"/>
+    <tableColumn id="3" xr3:uid="{53B6FC0E-8718-40FF-B446-42AF663B2C0D}" name="Non-Alcoholic Beverages (%)"/>
+    <tableColumn id="4" xr3:uid="{C29FE278-0864-47F0-BD2B-0F3DDA9D0C00}" name="Alcoholic Beverages (%)"/>
+    <tableColumn id="5" xr3:uid="{81A4B688-0748-4B38-8472-5EF0C6D18301}" name="Personal Care (%)"/>
+    <tableColumn id="6" xr3:uid="{6F636981-C558-4B7A-8797-45DBBE33B73B}" name="Household Care (%)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2475,7 +4693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -3088,4 +5306,338 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB88691-D205-49FF-9505-4C645E39E58D}">
+  <dimension ref="A1:AX13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="23" max="23" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="77.42578125" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" customWidth="1"/>
+    <col min="48" max="48" width="22.7109375" customWidth="1"/>
+    <col min="49" max="49" width="17.42578125" customWidth="1"/>
+    <col min="50" max="50" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>39479</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>39692</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>39845</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT4">
+        <v>31</v>
+      </c>
+      <c r="AU4">
+        <v>31</v>
+      </c>
+      <c r="AV4">
+        <v>29</v>
+      </c>
+      <c r="AW4">
+        <v>37</v>
+      </c>
+      <c r="AX4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>40057</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT5">
+        <v>29</v>
+      </c>
+      <c r="AU5">
+        <v>29</v>
+      </c>
+      <c r="AV5">
+        <v>28</v>
+      </c>
+      <c r="AW5">
+        <v>27</v>
+      </c>
+      <c r="AX5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>40238</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT6">
+        <v>21</v>
+      </c>
+      <c r="AU6">
+        <v>24</v>
+      </c>
+      <c r="AV6">
+        <v>24</v>
+      </c>
+      <c r="AW6">
+        <v>13</v>
+      </c>
+      <c r="AX6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>40422</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7">
+        <v>9</v>
+      </c>
+      <c r="AU7">
+        <v>21</v>
+      </c>
+      <c r="AV7">
+        <v>16</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>40603</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT8">
+        <v>9</v>
+      </c>
+      <c r="AU8">
+        <v>19</v>
+      </c>
+      <c r="AV8">
+        <v>8</v>
+      </c>
+      <c r="AW8">
+        <v>17</v>
+      </c>
+      <c r="AX8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>40787</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT9">
+        <v>6</v>
+      </c>
+      <c r="AU9">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>41153</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>41883</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Section 1/Consumer Beahviour Analysis/Consumer Behaviour Survey Analysis.xlsx
+++ b/Section 1/Consumer Beahviour Analysis/Consumer Behaviour Survey Analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONKAMS\Downloads\nestle-international-marketing-analysis\Section 1\Consumer Beahviour Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C884F6-1A83-4C7B-8167-1FE441F2D2EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9801730-FC8D-42B1-8964-07206B9E0445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China" sheetId="1" r:id="rId1"/>
     <sheet name="United States" sheetId="2" r:id="rId2"/>
+    <sheet name="Nigeria" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>Summary of Respondents' Demographics(N=100)</t>
   </si>
@@ -236,12 +237,36 @@
   </si>
   <si>
     <t>Changes in buying beahviour in the past year among those who changed buying behaviour</t>
+  </si>
+  <si>
+    <t>Aspect of Consumer Analysis</t>
+  </si>
+  <si>
+    <t>Percentage (%)</t>
+  </si>
+  <si>
+    <t>Satisfaction with Milo quality</t>
+  </si>
+  <si>
+    <t>Agreement on Nestlé's adaptation of marketing mix</t>
+  </si>
+  <si>
+    <t>Perception of Nestlé's commitment to creating shared value</t>
+  </si>
+  <si>
+    <t>Influence of continuous advertising on purchasing decisions</t>
+  </si>
+  <si>
+    <t>Satisfaction with Milo's price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +358,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,30 +368,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -405,6 +416,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1211,8 +1240,6 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
               <c:spPr>
                 <a:gradFill rotWithShape="1">
                   <a:gsLst>
@@ -1903,6 +1930,285 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Nigeria!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Nigeria!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Satisfaction with Milo quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agreement on Nestlé's adaptation of marketing mix</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perception of Nestlé's commitment to creating shared value</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Influence of continuous advertising on purchasing decisions</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Satisfaction with Milo's price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Nigeria!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB8A-4B70-A1EE-EAFAA4350017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="845364960"/>
+        <c:axId val="834648848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="845364960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834648848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="834648848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="845364960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1984,28 +2290,41 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -3157,56 +3476,33 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3215,15 +3511,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3257,66 +3576,39 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3325,21 +3617,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -3348,10 +3637,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3367,15 +3656,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3390,7 +3680,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3399,9 +3689,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3415,12 +3705,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3434,12 +3724,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3453,20 +3743,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3480,12 +3776,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -3499,12 +3795,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3512,18 +3827,58 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -3531,105 +3886,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3638,13 +3906,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3653,7 +3922,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3665,12 +3934,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -3678,37 +3956,32 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4366,6 +4639,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62507FF-5C67-4860-AF0B-D9DD8A79EB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{053A2267-BBC5-427B-99EC-03820A4AA5CC}" name="Table1" displayName="Table1" ref="A2:C34" totalsRowShown="0">
   <autoFilter ref="A2:C34" xr:uid="{987744F4-27A9-48F5-B8AB-1262D4453E53}"/>
@@ -4379,7 +4693,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F9B65F4-4336-445C-B7C4-6CF483D3BBE1}" name="Table2" displayName="Table2" ref="BG2:BI32" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F9B65F4-4336-445C-B7C4-6CF483D3BBE1}" name="Table2" displayName="Table2" ref="BG2:BI32" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="BG2:BI32" xr:uid="{5DBB6849-D0EA-4189-A12B-52E7E7BC92FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AD23F8FC-F567-4EEA-983C-B87DDEEDEE29}" name="RESPONSE"/>
@@ -4394,15 +4708,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F0FB5AB-8391-41D0-92D3-3423B334D9AD}" name="Table3" displayName="Table3" ref="A1:B13" totalsRowShown="0">
   <autoFilter ref="A1:B13" xr:uid="{A88B349A-B74A-45C6-984F-7C94F15BBA11}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C7D2A7E-E33C-47C0-93EB-5508DB77853A}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D64E160B-154E-4E5E-943A-B5BCA59AE64A}" name="Percentage of Consumers Reporting Economic Hardship" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{0C7D2A7E-E33C-47C0-93EB-5508DB77853A}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D64E160B-154E-4E5E-943A-B5BCA59AE64A}" name="Percentage of Consumers Reporting Economic Hardship" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C44670EF-0ADD-453B-9478-DE020CF4AEFE}" name="Table4" displayName="Table4" ref="W2:Y8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C44670EF-0ADD-453B-9478-DE020CF4AEFE}" name="Table4" displayName="Table4" ref="W2:Y8" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="W2:Y8" xr:uid="{92C45653-C4FA-47C3-A4CF-E4683A87E07C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{541A502A-108C-4E93-9395-255053A9DEB8}" name="Change in Buying Behavior" dataDxfId="3"/>
@@ -4423,6 +4737,17 @@
     <tableColumn id="4" xr3:uid="{C29FE278-0864-47F0-BD2B-0F3DDA9D0C00}" name="Alcoholic Beverages (%)"/>
     <tableColumn id="5" xr3:uid="{81A4B688-0748-4B38-8472-5EF0C6D18301}" name="Personal Care (%)"/>
     <tableColumn id="6" xr3:uid="{6F636981-C558-4B7A-8797-45DBBE33B73B}" name="Household Care (%)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6B2F5EFF-C13E-44E0-B267-0F6680D4A3AF}" name="Table6" displayName="Table6" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{637D60AE-B97E-4A33-A37D-904654066C08}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F992A929-7D08-490B-B1E7-48A25B559107}" name="Aspect of Consumer Analysis"/>
+    <tableColumn id="2" xr3:uid="{DE2B34A3-452C-4B0B-A6F1-157A6DEBD36B}" name="Percentage (%)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5312,7 +5637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB88691-D205-49FF-9505-4C645E39E58D}">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="W17" zoomScale="119" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
@@ -5640,4 +5965,76 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5E13C6-22AA-4031-8E15-DC7C23F38F83}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>